--- a/public_holidays.xlsx
+++ b/public_holidays.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.tan\Documents\Linda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05098E0A-69C6-4E77-A3CB-C9E40677D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C7B87-3B29-4933-9F62-2C862D9DE396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E62CF2CC-F4BC-4AD6-B765-28D326AE279D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="public_holidays" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
